--- a/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24020"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D993AD-9832-4C9A-9B47-AB3A6229294F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D2B4AC6-AAC6-41CC-ADC8-965DDADABF58}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -93,6 +93,42 @@
     <t>Fix the softwarekonzept</t>
   </si>
   <si>
+    <t xml:space="preserve">Proseminar </t>
+  </si>
+  <si>
+    <t>Discussing about the concept and the issues in general so to have an idea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issues distrubution </t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Some Basic Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Models code w/ Anselmi Flaminia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first blueprint of the model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models connect w/ the database </t>
+  </si>
+  <si>
+    <t>Dividing the issues - Teambesprechung</t>
+  </si>
+  <si>
+    <t>Data set for the topic (first-dummy draft)</t>
+  </si>
+  <si>
+    <t>Data set for the terms (first-dummy draft on my note)</t>
+  </si>
+  <si>
+    <t>Data set for the terms (testing on h2)</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -114,9 +150,6 @@
     <t>Software/System Design und Architektur</t>
   </si>
   <si>
-    <t>Implementierung</t>
-  </si>
-  <si>
     <t>Tests</t>
   </si>
   <si>
@@ -130,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +215,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -209,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -225,6 +271,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +595,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -551,8 +603,8 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -697,71 +749,187 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="11">
+        <v>44280</v>
+      </c>
+      <c r="B12" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="8">
+        <v>44289</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="8">
+        <v>44290</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="8">
+        <v>44291</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A18" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B19" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="8">
+        <v>44301</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="8">
+        <v>44306</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>44307</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8"/>
@@ -5661,7 +5829,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1000</xm:sqref>
+          <xm:sqref>C2:C10 C12:C18 C20:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5682,10 +5850,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5709,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5717,7 +5885,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5725,7 +5893,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5733,7 +5901,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5741,7 +5909,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5749,7 +5917,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5757,7 +5925,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5765,7 +5933,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D2B4AC6-AAC6-41CC-ADC8-965DDADABF58}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2AB53E1-31D0-4E6C-A3A7-75F95FA0DF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -129,6 +129,45 @@
     <t>Data set for the terms (testing on h2)</t>
   </si>
   <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy draft test, to verify which version to use (my own research) </t>
+  </si>
+  <si>
+    <t>dumy draft on paper</t>
+  </si>
+  <si>
+    <t>start with the UserControllers</t>
+  </si>
+  <si>
+    <t>...w/ the UserControllers</t>
+  </si>
+  <si>
+    <t>...w/ with the UserControllers</t>
+  </si>
+  <si>
+    <t>start with the other Controllers</t>
+  </si>
+  <si>
+    <t>continuing w/ the remaing controllers (except the Games)</t>
+  </si>
+  <si>
+    <t>Controllers Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controllers Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixing errors of some tests </t>
+  </si>
+  <si>
+    <t>Fixing Test</t>
+  </si>
+  <si>
+    <t>start with GameController</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -148,9 +187,6 @@
   </si>
   <si>
     <t>Software/System Design und Architektur</t>
-  </si>
-  <si>
-    <t>Tests</t>
   </si>
   <si>
     <t>Konfiguration und Deployment</t>
@@ -259,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -594,8 +630,8 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -932,89 +968,242 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B24" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B25" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A26" s="8">
+        <v>44312</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="8">
+        <v>44313</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44315</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A32" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="2">
+        <v>44318</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="8">
+        <v>44319</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" s="8">
+        <v>44321</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" s="2">
+        <v>44322</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8"/>
@@ -5829,7 +6018,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C12:C18 C20:C1000</xm:sqref>
+          <xm:sqref>C2:C10 C12:C18 C20:C32 C34:C36 C38:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5850,10 +6039,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5877,7 +6066,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5885,7 +6074,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5893,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5901,7 +6090,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5909,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5925,7 +6114,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5933,7 +6122,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2AB53E1-31D0-4E6C-A3A7-75F95FA0DF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76486734-773C-430F-B27A-063D7539AB09}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -630,8 +630,8 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1206,24 +1206,60 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B41" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B42" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A43" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
+      <c r="A44" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8"/>

--- a/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76486734-773C-430F-B27A-063D7539AB09}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71A4681-768E-4ACE-8FFA-864B50DB1EEF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -168,13 +168,16 @@
     <t>start with GameController</t>
   </si>
   <si>
+    <t>Systemtest (fremdes System)</t>
+  </si>
+  <si>
+    <t>Abnahmetest</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Bezeichnung</t>
-  </si>
-  <si>
-    <t>Systemtest (fremdes System)</t>
   </si>
   <si>
     <t>Abschlussbericht</t>
@@ -630,8 +633,8 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1010,120 +1013,120 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="8">
-        <v>44313</v>
+      <c r="A27" s="2">
+        <v>44312</v>
       </c>
       <c r="B27" s="7">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="8">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B28" s="7">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="8">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B29" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="8">
+        <v>44315</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8">
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="8">
         <v>44316</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8">
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" s="8">
         <v>44317</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B32" s="7">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8">
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="8">
         <v>44318</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B33" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75">
-      <c r="A33" s="2">
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="2">
         <v>44318</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B34" s="7">
         <v>0.20833333333333334</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75">
-      <c r="A34" s="8">
-        <v>44319</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.16666666666666666</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>36</v>
+      <c r="D34" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="8">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B35" s="7">
         <v>0.16666666666666666</v>
@@ -1132,96 +1135,96 @@
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="8">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B36" s="7">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" s="8">
+        <v>44321</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75">
-      <c r="A37" s="2">
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" s="2">
         <v>44322</v>
-      </c>
-      <c r="B37" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75">
-      <c r="A38" s="8">
-        <v>44323</v>
       </c>
       <c r="B38" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="8">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B39" s="7">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
+      <c r="A40" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8">
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" s="8">
         <v>44325</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B41" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="8">
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" s="8">
         <v>44326</v>
-      </c>
-      <c r="B41" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8">
-        <v>44327</v>
       </c>
       <c r="B42" s="7">
         <v>8.3333333333333329E-2</v>
@@ -1233,58 +1236,103 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8">
-        <v>44328</v>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" s="2">
+        <v>44326</v>
       </c>
       <c r="B43" s="7">
-        <v>0.16666666666666666</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="8">
-        <v>44329</v>
+        <v>44327</v>
       </c>
       <c r="B44" s="7">
-        <v>0.41666666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+    <row r="45" spans="1:4" ht="15.75">
+      <c r="A45" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75">
+      <c r="A46" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
+      <c r="A47" s="8">
+        <v>44336</v>
+      </c>
+      <c r="B47" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75">
+      <c r="A48" s="8">
+        <v>44342</v>
+      </c>
+      <c r="B48" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="8">
+        <v>44346</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8"/>
@@ -6054,7 +6102,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C12:C18 C20:C32 C34:C36 C38:C1000</xm:sqref>
+          <xm:sqref>C2:C10 C12:C18 C35:C37 C39:C42 C44:C1000 C28:C33 C20:C26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6075,10 +6123,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6102,7 +6150,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6110,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6118,7 +6166,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6126,7 +6174,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6134,7 +6182,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6158,7 +6206,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24124"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b5ebd3f5ab2417c/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelatodhri/Desktop/anas/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71A4681-768E-4ACE-8FFA-864B50DB1EEF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22E9A1F-46B0-9445-A42E-AE6D78DDB4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -138,9 +138,6 @@
     <t>dumy draft on paper</t>
   </si>
   <si>
-    <t>start with the UserControllers</t>
-  </si>
-  <si>
     <t>...w/ the UserControllers</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>Konfiguration und Deployment</t>
+  </si>
+  <si>
+    <t>TOT</t>
   </si>
 </sst>
 </file>
@@ -258,14 +258,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -316,6 +316,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,24 +632,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="30.95">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -661,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>43891</v>
       </c>
@@ -675,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>44263</v>
       </c>
@@ -689,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="8">
         <v>44266</v>
       </c>
@@ -703,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>44267</v>
       </c>
@@ -717,13 +719,14 @@
         <v>10</v>
       </c>
       <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>44268</v>
       </c>
       <c r="B6" s="7">
-        <v>0.375</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -732,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>44270</v>
       </c>
@@ -746,7 +749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>44270</v>
       </c>
@@ -760,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>44272</v>
       </c>
@@ -774,7 +777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>44273</v>
       </c>
@@ -788,7 +791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -802,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:9">
       <c r="A12" s="11">
         <v>44280</v>
       </c>
@@ -816,7 +819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>44287</v>
       </c>
@@ -830,12 +833,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <v>44288</v>
       </c>
       <c r="B14" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -844,7 +847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>44289</v>
       </c>
@@ -858,7 +861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>44290</v>
       </c>
@@ -872,7 +875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:4">
       <c r="A17" s="8">
         <v>44291</v>
       </c>
@@ -900,7 +903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>44298</v>
       </c>
@@ -914,7 +917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75">
+    <row r="20" spans="1:4">
       <c r="A20" s="8">
         <v>44301</v>
       </c>
@@ -928,7 +931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="8">
         <v>44306</v>
       </c>
@@ -999,39 +1002,39 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8">
+      <c r="A26" s="2">
         <v>44312</v>
       </c>
       <c r="B26" s="7">
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17">
+      <c r="A27" s="8">
+        <v>44313</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="2">
-        <v>44312</v>
-      </c>
-      <c r="B27" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="8">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B28" s="7">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -1040,93 +1043,93 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75">
+    <row r="29" spans="1:4">
       <c r="A29" s="8">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B29" s="7">
-        <v>0.1875</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75">
+    <row r="30" spans="1:4">
       <c r="A30" s="8">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B30" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>44318</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8">
+        <v>44319</v>
+      </c>
+      <c r="B34" s="7">
         <v>0.16666666666666666</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75">
-      <c r="A31" s="8">
-        <v>44316</v>
-      </c>
-      <c r="B31" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75">
-      <c r="A32" s="8">
-        <v>44317</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75">
-      <c r="A33" s="8">
-        <v>44318</v>
-      </c>
-      <c r="B33" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75">
-      <c r="A34" s="2">
-        <v>44318</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.20833333333333334</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75">
+    <row r="35" spans="1:4">
       <c r="A35" s="8">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B35" s="7">
         <v>0.16666666666666666</v>
@@ -1135,57 +1138,57 @@
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="8">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B36" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75">
-      <c r="A37" s="8">
-        <v>44321</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
+        <v>44322</v>
       </c>
       <c r="B37" s="7">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75">
-      <c r="A38" s="2">
-        <v>44322</v>
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8">
+        <v>44323</v>
       </c>
       <c r="B38" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75">
+        <v>27</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="8">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B39" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -1194,68 +1197,68 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75">
+    <row r="40" spans="1:4">
       <c r="A40" s="8">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B40" s="7">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B41" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C41" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75">
-      <c r="A41" s="8">
-        <v>44325</v>
-      </c>
-      <c r="B41" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75">
-      <c r="A42" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>44326</v>
       </c>
       <c r="B42" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B43" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75">
-      <c r="A43" s="2">
-        <v>44326</v>
-      </c>
-      <c r="B43" s="7">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75">
+    <row r="44" spans="1:4">
       <c r="A44" s="8">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B44" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -1264,54 +1267,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75">
+    <row r="45" spans="1:4" ht="17">
       <c r="A45" s="8">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B45" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75">
+    <row r="46" spans="1:4">
       <c r="A46" s="8">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="B46" s="7">
-        <v>0.41666666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75">
+        <v>39</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="8">
-        <v>44336</v>
+        <v>44342</v>
       </c>
       <c r="B47" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="8">
-        <v>44342</v>
+        <v>44346</v>
       </c>
       <c r="B48" s="7">
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1320,94 +1323,199 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75">
-      <c r="A49" s="8">
-        <v>44346</v>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
+        <v>44348</v>
       </c>
       <c r="B49" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
+        <v>44349</v>
+      </c>
+      <c r="B50" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>44350</v>
+      </c>
+      <c r="B51" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>44351</v>
+      </c>
+      <c r="B52" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
+        <v>44352</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
+        <v>44353</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B55" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>44355</v>
+      </c>
+      <c r="B56" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B57" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B58" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D60" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
-    </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B61" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A62" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="14">
+        <v>150</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8"/>
@@ -1415,8 +1523,6 @@
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4">
@@ -6102,7 +6208,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C12:C18 C35:C37 C39:C42 C44:C1000 C28:C33 C20:C26</xm:sqref>
+          <xm:sqref>C2:C10 C12:C18 C34:C36 C38:C41 C20:C25 C27:C32 C43:C48 B64 C65:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6116,17 +6222,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6150,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6158,7 +6264,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6166,7 +6272,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6174,7 +6280,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6182,7 +6288,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6206,7 +6312,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
+++ b/documents/zeitaufzeichnung/angela_todhri-Zeitaufzeichnung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelatodhri/Desktop/anas/g6t1/documents/zeitaufzeichnung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelatodhri/Desktop/PROGETTO/g6t1/documents/zeitaufzeichnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22E9A1F-46B0-9445-A42E-AE6D78DDB4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF144B5-47D8-6B45-870F-F09D9BFC8A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>TOT</t>
+  </si>
+  <si>
+    <t>Bigfixing tests</t>
   </si>
 </sst>
 </file>
@@ -635,10 +638,10 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1506,11 +1509,31 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="14">
-        <v>150</v>
+      <c r="A62" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B62" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1518,8 +1541,12 @@
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="14">
+        <v>158</v>
+      </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4">
